--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Artur/Desktop/thesis_HIR_versie5/coding/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarel/Desktop/studies artur/thesis_HIR/coding/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1757806-148D-8042-9559-AC8C23F67891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4955F8ED-5534-5348-97AD-0705DBD8BC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50060" yWindow="500" windowWidth="16620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2472,16 +2472,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2821,138 +2817,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR785"/>
+  <dimension ref="A1:A785"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="R223" sqref="R223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.33203125" customWidth="1"/>
-    <col min="38" max="38" width="14.5" customWidth="1"/>
-    <col min="39" max="39" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -5283,7 +5234,7 @@
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="5" t="s">
+      <c r="A482" s="4" t="s">
         <v>479</v>
       </c>
     </row>
@@ -6803,9 +6754,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AK1:AR1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6813,12 +6761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE3D0129FE4AC84F959905693E2708FD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f10ebdf2c02a66b8bdd049b571973cc7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="048e9034-d53c-4421-b09b-182332618828" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007b509972eb46516d2e24eee25896d2" ns2:_="">
     <xsd:import namespace="048e9034-d53c-4421-b09b-182332618828"/>
@@ -6950,7 +6892,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6959,16 +6901,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5A2278-7DB7-4313-92E5-7377D4C48D53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F3D9EF-C3C5-4E52-89CA-C55539B21778}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6986,10 +6925,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818064B4-10F8-426E-823B-C10D77C2719F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5A2278-7DB7-4313-92E5-7377D4C48D53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>